--- a/Code/Results/Cases/Case_2_106/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_106/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.43152520227563</v>
+        <v>13.96128838361976</v>
       </c>
       <c r="C2">
-        <v>6.178649081783036</v>
+        <v>6.876005029580077</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.313943126872044</v>
+        <v>14.13411350873235</v>
       </c>
       <c r="F2">
-        <v>29.33531354133951</v>
+        <v>41.93243388613818</v>
       </c>
       <c r="G2">
-        <v>32.12843594027981</v>
+        <v>44.1308114787182</v>
       </c>
       <c r="H2">
-        <v>11.41277101861599</v>
+        <v>18.21598862651263</v>
       </c>
       <c r="I2">
-        <v>18.6058347600854</v>
+        <v>28.93243347951861</v>
       </c>
       <c r="J2">
-        <v>5.961304404965167</v>
+        <v>8.90964630204717</v>
       </c>
       <c r="K2">
-        <v>10.71749346280986</v>
+        <v>11.06736725554729</v>
       </c>
       <c r="L2">
-        <v>7.502554501214179</v>
+        <v>12.20765481881889</v>
       </c>
       <c r="M2">
-        <v>10.81979241868067</v>
+        <v>16.2649007694563</v>
       </c>
       <c r="N2">
-        <v>14.14160906227902</v>
+        <v>21.77714851554531</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.64179884948911</v>
+        <v>13.79038372623333</v>
       </c>
       <c r="C3">
-        <v>5.962710596538942</v>
+        <v>6.80679284274449</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.232590979645801</v>
+        <v>14.14622629166904</v>
       </c>
       <c r="F3">
-        <v>28.84043078338453</v>
+        <v>41.95994156897194</v>
       </c>
       <c r="G3">
-        <v>31.81108202623302</v>
+        <v>44.2070400650726</v>
       </c>
       <c r="H3">
-        <v>11.45902525432404</v>
+        <v>18.26383573636536</v>
       </c>
       <c r="I3">
-        <v>18.68260743208501</v>
+        <v>29.01419969977591</v>
       </c>
       <c r="J3">
-        <v>5.957413732436782</v>
+        <v>8.90752245462906</v>
       </c>
       <c r="K3">
-        <v>10.02613881901011</v>
+        <v>10.94943087262273</v>
       </c>
       <c r="L3">
-        <v>7.365267155605649</v>
+        <v>12.20954885147832</v>
       </c>
       <c r="M3">
-        <v>10.48401792812071</v>
+        <v>16.24090924337228</v>
       </c>
       <c r="N3">
-        <v>14.35379510379521</v>
+        <v>21.83983895019549</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.13603932455378</v>
+        <v>13.68726588670816</v>
       </c>
       <c r="C4">
-        <v>5.826146008854773</v>
+        <v>6.763102746820334</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.185017354171823</v>
+        <v>14.15514013341997</v>
       </c>
       <c r="F4">
-        <v>28.55264113308338</v>
+        <v>41.98521945794436</v>
       </c>
       <c r="G4">
-        <v>31.64346778808205</v>
+        <v>44.26426561438453</v>
       </c>
       <c r="H4">
-        <v>11.49382551834364</v>
+        <v>18.29581873911221</v>
       </c>
       <c r="I4">
-        <v>18.74135817953638</v>
+        <v>29.06897842832023</v>
       </c>
       <c r="J4">
-        <v>5.95512674172498</v>
+        <v>8.90624671778926</v>
       </c>
       <c r="K4">
-        <v>9.577827446898546</v>
+        <v>10.87861097243451</v>
       </c>
       <c r="L4">
-        <v>7.282580968297475</v>
+        <v>12.21223158305875</v>
       </c>
       <c r="M4">
-        <v>10.27672295991985</v>
+        <v>16.22852299349589</v>
       </c>
       <c r="N4">
-        <v>14.48708077151563</v>
+        <v>21.88014434602323</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.92485862784274</v>
+        <v>13.64575048869756</v>
       </c>
       <c r="C5">
-        <v>5.769521869655213</v>
+        <v>6.745004312178082</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.166237860548234</v>
+        <v>14.15914469713257</v>
       </c>
       <c r="F5">
-        <v>28.4394491631062</v>
+        <v>41.99762985277868</v>
       </c>
       <c r="G5">
-        <v>31.58184511168423</v>
+        <v>44.2901999575414</v>
       </c>
       <c r="H5">
-        <v>11.50956299893843</v>
+        <v>18.30950700766612</v>
       </c>
       <c r="I5">
-        <v>18.76811564025461</v>
+        <v>29.09245074905994</v>
       </c>
       <c r="J5">
-        <v>5.954221771101549</v>
+        <v>8.905734062483303</v>
       </c>
       <c r="K5">
-        <v>9.389132296032242</v>
+        <v>10.85018311856239</v>
       </c>
       <c r="L5">
-        <v>7.249324008106468</v>
+        <v>12.21370809532799</v>
       </c>
       <c r="M5">
-        <v>10.19208644157056</v>
+        <v>16.2240692932868</v>
       </c>
       <c r="N5">
-        <v>14.5421722074272</v>
+        <v>21.8970263545853</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.88949111007202</v>
+        <v>13.63888885408329</v>
       </c>
       <c r="C6">
-        <v>5.760061600668136</v>
+        <v>6.741981472312479</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.163156465168468</v>
+        <v>14.15983214881157</v>
       </c>
       <c r="F6">
-        <v>28.42090146956465</v>
+        <v>41.9998179852342</v>
       </c>
       <c r="G6">
-        <v>31.57201099695602</v>
+        <v>44.29466405332295</v>
       </c>
       <c r="H6">
-        <v>11.51226865689257</v>
+        <v>18.31181948956764</v>
       </c>
       <c r="I6">
-        <v>18.77272580153786</v>
+        <v>29.09641772138794</v>
       </c>
       <c r="J6">
-        <v>5.954073170300308</v>
+        <v>8.905649375255704</v>
       </c>
       <c r="K6">
-        <v>9.357436613213686</v>
+        <v>10.84548967039184</v>
       </c>
       <c r="L6">
-        <v>7.243829167818134</v>
+        <v>12.2139764487257</v>
       </c>
       <c r="M6">
-        <v>10.17802652102471</v>
+        <v>16.22336574005418</v>
       </c>
       <c r="N6">
-        <v>14.5513676049753</v>
+        <v>21.89985725277736</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.13321158497822</v>
+        <v>13.68670388318942</v>
       </c>
       <c r="C7">
-        <v>5.825386255878825</v>
+        <v>6.762859849183276</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.184761617333773</v>
+        <v>14.15519263269265</v>
       </c>
       <c r="F7">
-        <v>28.55109799887998</v>
+        <v>41.9853782881293</v>
       </c>
       <c r="G7">
-        <v>31.6426099053309</v>
+        <v>44.26460479662228</v>
       </c>
       <c r="H7">
-        <v>11.49403152799004</v>
+        <v>18.29600069214426</v>
       </c>
       <c r="I7">
-        <v>18.74170777285653</v>
+        <v>29.06929033062707</v>
       </c>
       <c r="J7">
-        <v>5.955114425919328</v>
+        <v>8.906239774590206</v>
       </c>
       <c r="K7">
-        <v>9.575306966860964</v>
+        <v>10.87822579546776</v>
       </c>
       <c r="L7">
-        <v>7.282130634176713</v>
+        <v>12.21224994254083</v>
       </c>
       <c r="M7">
-        <v>10.27558201244046</v>
+        <v>16.22846051976368</v>
       </c>
       <c r="N7">
-        <v>14.48782058231762</v>
+        <v>21.88037016968154</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.16364620310641</v>
+        <v>13.90201254310768</v>
       </c>
       <c r="C8">
-        <v>6.105033795779067</v>
+        <v>6.852391797846806</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.285405544747972</v>
+        <v>14.1379840371264</v>
       </c>
       <c r="F8">
-        <v>29.1613720457095</v>
+        <v>41.94017794223334</v>
       </c>
       <c r="G8">
-        <v>32.01326179951872</v>
+        <v>44.15492889315809</v>
       </c>
       <c r="H8">
-        <v>11.4273585893948</v>
+        <v>18.23194569138387</v>
       </c>
       <c r="I8">
-        <v>18.62983244855971</v>
+        <v>28.95967679355136</v>
       </c>
       <c r="J8">
-        <v>5.959942607281561</v>
+        <v>8.90890818118242</v>
       </c>
       <c r="K8">
-        <v>10.48404614639355</v>
+        <v>11.02639096298073</v>
       </c>
       <c r="L8">
-        <v>7.454904269926688</v>
+        <v>12.20799314429841</v>
       </c>
       <c r="M8">
-        <v>10.70432191591988</v>
+        <v>16.25614448968496</v>
       </c>
       <c r="N8">
-        <v>14.21416079971829</v>
+        <v>21.79838862154872</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.01329561516589</v>
+        <v>14.33648648042805</v>
       </c>
       <c r="C9">
-        <v>6.620932909178606</v>
+        <v>7.018249384931366</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.501172347483751</v>
+        <v>14.11591738266894</v>
       </c>
       <c r="F9">
-        <v>30.48325810295907</v>
+        <v>41.91805803510381</v>
       </c>
       <c r="G9">
-        <v>32.96295767030508</v>
+        <v>44.02277455841585</v>
       </c>
       <c r="H9">
-        <v>11.34987124760772</v>
+        <v>18.12700245312835</v>
       </c>
       <c r="I9">
-        <v>18.5073924907326</v>
+        <v>28.78104389187593</v>
       </c>
       <c r="J9">
-        <v>5.970152987132356</v>
+        <v>8.914361520433165</v>
       </c>
       <c r="K9">
-        <v>12.07813190363859</v>
+        <v>11.32818552661171</v>
       </c>
       <c r="L9">
-        <v>7.804995168729565</v>
+        <v>12.21165269730326</v>
       </c>
       <c r="M9">
-        <v>11.53122902153951</v>
+        <v>16.32883800731289</v>
       </c>
       <c r="N9">
-        <v>13.70032054311549</v>
+        <v>21.65195040166476</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.32455293882061</v>
+        <v>14.66023504051899</v>
       </c>
       <c r="C10">
-        <v>6.979290548109689</v>
+        <v>7.133869046546884</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.670264623014953</v>
+        <v>14.10677511974377</v>
       </c>
       <c r="F10">
-        <v>31.52715679346365</v>
+        <v>41.94226396091089</v>
       </c>
       <c r="G10">
-        <v>33.80454901685972</v>
+        <v>43.97650465775411</v>
       </c>
       <c r="H10">
-        <v>11.32894933402053</v>
+        <v>18.06250245693345</v>
       </c>
       <c r="I10">
-        <v>18.48336986026966</v>
+        <v>28.67197904308444</v>
       </c>
       <c r="J10">
-        <v>5.978008037022002</v>
+        <v>8.91849748608302</v>
       </c>
       <c r="K10">
-        <v>13.13652541339857</v>
+        <v>11.55486058470826</v>
       </c>
       <c r="L10">
-        <v>8.067144464815236</v>
+        <v>12.22158771163982</v>
       </c>
       <c r="M10">
-        <v>12.12443944121645</v>
+        <v>16.39318150160486</v>
       </c>
       <c r="N10">
-        <v>13.33521299055163</v>
+        <v>21.55301147166065</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.91882252098686</v>
+        <v>14.80788411737194</v>
       </c>
       <c r="C11">
-        <v>7.137746021933612</v>
+        <v>7.18504979414435</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.749335972885126</v>
+        <v>14.10413979799801</v>
       </c>
       <c r="F11">
-        <v>32.01701713516557</v>
+        <v>41.9620232658357</v>
       </c>
       <c r="G11">
-        <v>34.22004352666889</v>
+        <v>43.9665313381925</v>
       </c>
       <c r="H11">
-        <v>11.32805445489411</v>
+        <v>18.0358963460822</v>
       </c>
       <c r="I11">
-        <v>18.4882948625619</v>
+        <v>28.62718529938486</v>
       </c>
       <c r="J11">
-        <v>5.981633807152265</v>
+        <v>8.920406065246848</v>
       </c>
       <c r="K11">
-        <v>13.5940012288485</v>
+        <v>11.65864630740833</v>
       </c>
       <c r="L11">
-        <v>8.187086669552436</v>
+        <v>12.22766316564535</v>
       </c>
       <c r="M11">
-        <v>12.39015987593171</v>
+        <v>16.42475992652178</v>
       </c>
       <c r="N11">
-        <v>13.17146538368409</v>
+        <v>21.50986153604633</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.139324899356</v>
+        <v>14.86379798714963</v>
       </c>
       <c r="C12">
-        <v>7.197091916670314</v>
+        <v>7.204221868821839</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.779574558710436</v>
+        <v>14.10335989096745</v>
       </c>
       <c r="F12">
-        <v>32.20459980731979</v>
+        <v>41.97075873282508</v>
       </c>
       <c r="G12">
-        <v>34.3821705676462</v>
+        <v>43.96434886279048</v>
       </c>
       <c r="H12">
-        <v>11.32902473254691</v>
+        <v>18.02621466193757</v>
       </c>
       <c r="I12">
-        <v>18.49257045839748</v>
+        <v>28.61091682946406</v>
       </c>
       <c r="J12">
-        <v>5.983012035690253</v>
+        <v>8.921132591512935</v>
       </c>
       <c r="K12">
-        <v>13.76382817509764</v>
+        <v>11.69800958110886</v>
       </c>
       <c r="L12">
-        <v>8.232574494446002</v>
+        <v>12.23018582101411</v>
       </c>
       <c r="M12">
-        <v>12.49011420858727</v>
+        <v>16.43704347113412</v>
       </c>
       <c r="N12">
-        <v>13.10976550375223</v>
+        <v>21.49378760599577</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.09203653823729</v>
+        <v>14.85175663680673</v>
       </c>
       <c r="C13">
-        <v>7.184339945042831</v>
+        <v>7.200102198267255</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.773049183926783</v>
+        <v>14.10351817813937</v>
       </c>
       <c r="F13">
-        <v>32.16410896588592</v>
+        <v>41.96882175181179</v>
       </c>
       <c r="G13">
-        <v>34.34703926504798</v>
+        <v>43.96474798027425</v>
       </c>
       <c r="H13">
-        <v>11.32875641370355</v>
+        <v>18.02828228390118</v>
       </c>
       <c r="I13">
-        <v>18.49154029891312</v>
+        <v>28.61438965999159</v>
       </c>
       <c r="J13">
-        <v>5.982715016231782</v>
+        <v>8.920975954325911</v>
       </c>
       <c r="K13">
-        <v>13.7274038400935</v>
+        <v>11.68952978841578</v>
       </c>
       <c r="L13">
-        <v>8.222775305632682</v>
+        <v>12.22963267673293</v>
       </c>
       <c r="M13">
-        <v>12.46861803839501</v>
+        <v>16.43438362020549</v>
       </c>
       <c r="N13">
-        <v>13.12304046471223</v>
+        <v>21.4972376015156</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.93705393956123</v>
+        <v>14.81248442836178</v>
       </c>
       <c r="C14">
-        <v>7.142641619031121</v>
+        <v>7.186631310850496</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.751817863082687</v>
+        <v>14.10407127108802</v>
       </c>
       <c r="F14">
-        <v>32.03240831933683</v>
+        <v>41.96271685633216</v>
       </c>
       <c r="G14">
-        <v>34.2332853517783</v>
+        <v>43.96631982873496</v>
       </c>
       <c r="H14">
-        <v>11.32810763800952</v>
+        <v>18.03509194154945</v>
       </c>
       <c r="I14">
-        <v>18.48859754418222</v>
+        <v>28.62583297048366</v>
       </c>
       <c r="J14">
-        <v>5.98174710411456</v>
+        <v>8.920465761697354</v>
       </c>
       <c r="K14">
-        <v>13.60804107273822</v>
+        <v>11.66188370358708</v>
       </c>
       <c r="L14">
-        <v>8.190827779611261</v>
+        <v>12.22786626687141</v>
       </c>
       <c r="M14">
-        <v>12.39839695693795</v>
+        <v>16.42576401606714</v>
       </c>
       <c r="N14">
-        <v>13.16638329999858</v>
+        <v>21.50853379935572</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.8415337627327</v>
+        <v>14.78842786705162</v>
       </c>
       <c r="C15">
-        <v>7.117014565059193</v>
+        <v>7.178352631102594</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.738851220253993</v>
+        <v>14.10443841865409</v>
       </c>
       <c r="F15">
-        <v>31.95200710843385</v>
+        <v>41.95914045436292</v>
       </c>
       <c r="G15">
-        <v>34.16423397184266</v>
+        <v>43.9674902745001</v>
       </c>
       <c r="H15">
-        <v>11.32788282886667</v>
+        <v>18.03931429926887</v>
       </c>
       <c r="I15">
-        <v>18.48711289821676</v>
+        <v>28.63293272364884</v>
       </c>
       <c r="J15">
-        <v>5.981154838379736</v>
+        <v>8.92015374412858</v>
       </c>
       <c r="K15">
-        <v>13.53448522535847</v>
+        <v>11.6449567198359</v>
       </c>
       <c r="L15">
-        <v>8.171267017960385</v>
+        <v>12.22681314913264</v>
       </c>
       <c r="M15">
-        <v>12.3552954819029</v>
+        <v>16.42052645007817</v>
       </c>
       <c r="N15">
-        <v>13.19297123675246</v>
+        <v>21.51548765575681</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.28507841501305</v>
+        <v>14.65058893479961</v>
       </c>
       <c r="C16">
-        <v>6.968843044990105</v>
+        <v>7.130495316119463</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.665139262281286</v>
+        <v>14.10697791303769</v>
       </c>
       <c r="F16">
-        <v>31.49543859670126</v>
+        <v>41.94114827707666</v>
       </c>
       <c r="G16">
-        <v>33.77806068083927</v>
+        <v>43.97737945835015</v>
       </c>
       <c r="H16">
-        <v>11.32918718972115</v>
+        <v>18.06429628208826</v>
       </c>
       <c r="I16">
-        <v>18.48337812065309</v>
+        <v>28.67500348605871</v>
       </c>
       <c r="J16">
-        <v>5.977771947055174</v>
+        <v>8.918373292100958</v>
       </c>
       <c r="K16">
-        <v>13.10614891353131</v>
+        <v>11.54808847058676</v>
       </c>
       <c r="L16">
-        <v>8.059317146584645</v>
+        <v>12.22122183079744</v>
       </c>
       <c r="M16">
-        <v>12.10698425619495</v>
+        <v>16.39116368179712</v>
       </c>
       <c r="N16">
-        <v>13.34595896108872</v>
+        <v>21.55586870842333</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.93557477601454</v>
+        <v>14.56608813543617</v>
       </c>
       <c r="C17">
-        <v>6.876773256330655</v>
+        <v>7.100769995401775</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.620460698177672</v>
+        <v>14.10892529380391</v>
       </c>
       <c r="F17">
-        <v>31.21913460933882</v>
+        <v>41.93234802087266</v>
       </c>
       <c r="G17">
-        <v>33.54958804747492</v>
+        <v>43.98628422178763</v>
       </c>
       <c r="H17">
-        <v>11.33224434495607</v>
+        <v>18.08032259386059</v>
       </c>
       <c r="I17">
-        <v>18.48523939813255</v>
+        <v>28.70204772509945</v>
       </c>
       <c r="J17">
-        <v>5.975708509714579</v>
+        <v>8.917287907919462</v>
       </c>
       <c r="K17">
-        <v>12.83726132165089</v>
+        <v>11.48880990803059</v>
       </c>
       <c r="L17">
-        <v>7.990793463686327</v>
+        <v>12.21818906007516</v>
       </c>
       <c r="M17">
-        <v>11.95353875986449</v>
+        <v>16.37373729181778</v>
       </c>
       <c r="N17">
-        <v>13.44039159427265</v>
+        <v>21.58111620419401</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.73154205748675</v>
+        <v>14.51752375529871</v>
       </c>
       <c r="C18">
-        <v>6.823387431888084</v>
+        <v>7.083539886038559</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.594965974567046</v>
+        <v>14.11018884453314</v>
       </c>
       <c r="F18">
-        <v>31.06162653287951</v>
+        <v>41.92811009186512</v>
       </c>
       <c r="G18">
-        <v>33.42124501931261</v>
+        <v>43.99244841269292</v>
       </c>
       <c r="H18">
-        <v>11.33481005511523</v>
+        <v>18.08979795245146</v>
       </c>
       <c r="I18">
-        <v>18.4877940702398</v>
+        <v>28.71805653097537</v>
       </c>
       <c r="J18">
-        <v>5.974526764755693</v>
+        <v>8.91666618172983</v>
       </c>
       <c r="K18">
-        <v>12.68034330760164</v>
+        <v>11.45477956406532</v>
       </c>
       <c r="L18">
-        <v>7.951447040131278</v>
+        <v>12.21659125614995</v>
       </c>
       <c r="M18">
-        <v>11.86489560753589</v>
+        <v>16.36393176284972</v>
       </c>
       <c r="N18">
-        <v>13.49492897287116</v>
+        <v>21.59581283619784</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.66194193614871</v>
+        <v>14.50108884378981</v>
       </c>
       <c r="C19">
-        <v>6.805238229622808</v>
+        <v>7.077683411970737</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.586369204445303</v>
+        <v>14.11064133319871</v>
       </c>
       <c r="F19">
-        <v>31.00854222153692</v>
+        <v>41.92681681497356</v>
       </c>
       <c r="G19">
-        <v>33.37831426486284</v>
+        <v>43.99471447028075</v>
       </c>
       <c r="H19">
-        <v>11.33581534652781</v>
+        <v>18.09305035831992</v>
       </c>
       <c r="I19">
-        <v>18.48891000144618</v>
+        <v>28.72355473225925</v>
       </c>
       <c r="J19">
-        <v>5.974127587490587</v>
+        <v>8.916456118595717</v>
       </c>
       <c r="K19">
-        <v>12.62682405051073</v>
+        <v>11.44326971551387</v>
       </c>
       <c r="L19">
-        <v>7.938137426530101</v>
+        <v>12.21607549098302</v>
       </c>
       <c r="M19">
-        <v>11.83481879151465</v>
+        <v>16.36064935515262</v>
       </c>
       <c r="N19">
-        <v>13.51343341771915</v>
+        <v>21.60081894457516</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.97309091078463</v>
+        <v>14.57507980764295</v>
       </c>
       <c r="C20">
-        <v>6.886618742913601</v>
+        <v>7.103948100353692</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.625195872913034</v>
+        <v>14.10870315077279</v>
       </c>
       <c r="F20">
-        <v>31.24840175996233</v>
+        <v>41.93319960107645</v>
       </c>
       <c r="G20">
-        <v>33.57359107596169</v>
+        <v>43.98522839437207</v>
       </c>
       <c r="H20">
-        <v>11.33183485748951</v>
+        <v>18.07858991959939</v>
       </c>
       <c r="I20">
-        <v>18.48488672388697</v>
+        <v>28.69912186023678</v>
       </c>
       <c r="J20">
-        <v>5.975927655484814</v>
+        <v>8.917403184952056</v>
       </c>
       <c r="K20">
-        <v>12.86611858294403</v>
+        <v>11.49511372391856</v>
       </c>
       <c r="L20">
-        <v>7.998081265187755</v>
+        <v>12.21849674691782</v>
       </c>
       <c r="M20">
-        <v>11.96991374577463</v>
+        <v>16.37556987842527</v>
       </c>
       <c r="N20">
-        <v>13.43031628474735</v>
+        <v>21.57841046784414</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.98269870117015</v>
+        <v>14.82401996818105</v>
       </c>
       <c r="C21">
-        <v>7.15490726857577</v>
+        <v>7.19059375086732</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.758046088799643</v>
+        <v>14.10390290557958</v>
       </c>
       <c r="F21">
-        <v>32.07103600416462</v>
+        <v>41.96447604834033</v>
       </c>
       <c r="G21">
-        <v>34.26656698565787</v>
+        <v>43.96581486462069</v>
       </c>
       <c r="H21">
-        <v>11.32826210582927</v>
+        <v>18.03308110021722</v>
       </c>
       <c r="I21">
-        <v>18.48939541906538</v>
+        <v>28.6224529532154</v>
       </c>
       <c r="J21">
-        <v>5.982031281027698</v>
+        <v>8.920615515689255</v>
       </c>
       <c r="K21">
-        <v>13.64319299237724</v>
+        <v>11.6700026223184</v>
       </c>
       <c r="L21">
-        <v>8.200209922739695</v>
+        <v>12.22837909326045</v>
       </c>
       <c r="M21">
-        <v>12.41904126266561</v>
+        <v>16.42828702224416</v>
       </c>
       <c r="N21">
-        <v>13.15364434343025</v>
+        <v>21.50520862176004</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.61613230875279</v>
+        <v>14.98670752990844</v>
       </c>
       <c r="C22">
-        <v>7.326418036605221</v>
+        <v>7.246001284793724</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.846590580803053</v>
+        <v>14.10203600256832</v>
       </c>
       <c r="F22">
-        <v>32.62078793282367</v>
+        <v>41.99221781106734</v>
       </c>
       <c r="G22">
-        <v>34.74741371727082</v>
+        <v>43.96241927333751</v>
       </c>
       <c r="H22">
-        <v>11.33359163169142</v>
+        <v>18.00563197121582</v>
       </c>
       <c r="I22">
-        <v>18.50645609700868</v>
+        <v>28.57639058713087</v>
       </c>
       <c r="J22">
-        <v>5.986049590125105</v>
+        <v>8.922736991913869</v>
       </c>
       <c r="K22">
-        <v>14.13120601199051</v>
+        <v>11.78464761786375</v>
       </c>
       <c r="L22">
-        <v>8.332698232662352</v>
+        <v>12.23613095694816</v>
       </c>
       <c r="M22">
-        <v>12.70865019786615</v>
+        <v>16.46463465869478</v>
       </c>
       <c r="N22">
-        <v>12.9746027397861</v>
+        <v>21.4589169936685</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.28045384464006</v>
+        <v>14.89989565912956</v>
       </c>
       <c r="C23">
-        <v>7.235229375109981</v>
+        <v>7.216542666170294</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.799179747287361</v>
+        <v>14.10291652841391</v>
       </c>
       <c r="F23">
-        <v>32.32628907065426</v>
+        <v>41.97674534133976</v>
       </c>
       <c r="G23">
-        <v>34.4881911663223</v>
+        <v>43.96338104907762</v>
       </c>
       <c r="H23">
-        <v>11.33002237302709</v>
+        <v>18.0200721873862</v>
       </c>
       <c r="I23">
-        <v>18.49601492332871</v>
+        <v>28.60060455582859</v>
       </c>
       <c r="J23">
-        <v>5.983903091320956</v>
+        <v>8.9216027405246</v>
       </c>
       <c r="K23">
-        <v>13.87254612173612</v>
+        <v>11.72343913194945</v>
       </c>
       <c r="L23">
-        <v>8.261961033170984</v>
+        <v>12.23187591636566</v>
       </c>
       <c r="M23">
-        <v>12.55446100046109</v>
+        <v>16.44506415702669</v>
       </c>
       <c r="N23">
-        <v>13.0700077395853</v>
+        <v>21.48348225660882</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.95613952124642</v>
+        <v>14.57101461806087</v>
       </c>
       <c r="C24">
-        <v>6.882169011352988</v>
+        <v>7.10251171674454</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.623054502684678</v>
+        <v>14.10880313310164</v>
       </c>
       <c r="F24">
-        <v>31.23516589323135</v>
+        <v>41.93281204252032</v>
       </c>
       <c r="G24">
-        <v>33.56272994177967</v>
+        <v>43.98570247979427</v>
       </c>
       <c r="H24">
-        <v>11.33201747490138</v>
+        <v>18.07937244669836</v>
       </c>
       <c r="I24">
-        <v>18.4850415535963</v>
+        <v>28.70044320868377</v>
       </c>
       <c r="J24">
-        <v>5.975828565329007</v>
+        <v>8.917351061103121</v>
       </c>
       <c r="K24">
-        <v>12.8530794785742</v>
+        <v>11.49226361132884</v>
       </c>
       <c r="L24">
-        <v>7.994786295906145</v>
+        <v>12.21835718749282</v>
       </c>
       <c r="M24">
-        <v>11.96251193361962</v>
+        <v>16.37474070163976</v>
       </c>
       <c r="N24">
-        <v>13.43487056128569</v>
+        <v>21.57963316574463</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.53186333302268</v>
+        <v>14.21794058537319</v>
       </c>
       <c r="C25">
-        <v>6.484954901967862</v>
+        <v>6.974453428110629</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.440896274677099</v>
+        <v>14.12064161338248</v>
       </c>
       <c r="F25">
-        <v>30.11260567394804</v>
+        <v>41.91692706251407</v>
       </c>
       <c r="G25">
-        <v>32.68129442575826</v>
+        <v>44.04961681976206</v>
       </c>
       <c r="H25">
-        <v>11.36477443809923</v>
+        <v>18.15317945326508</v>
       </c>
       <c r="I25">
-        <v>18.52944451525419</v>
+        <v>28.82547682173624</v>
       </c>
       <c r="J25">
-        <v>5.967321017927034</v>
+        <v>8.912863152748345</v>
       </c>
       <c r="K25">
-        <v>11.66684208518322</v>
+        <v>11.24553440396808</v>
       </c>
       <c r="L25">
-        <v>7.709282134443962</v>
+        <v>12.20938441280656</v>
       </c>
       <c r="M25">
-        <v>11.3096563393376</v>
+        <v>16.3072300791162</v>
       </c>
       <c r="N25">
-        <v>13.8370363189523</v>
+        <v>21.6900408195713</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_106/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_106/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.96128838361976</v>
+        <v>13.43152520227562</v>
       </c>
       <c r="C2">
-        <v>6.876005029580077</v>
+        <v>6.178649081782694</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.13411350873235</v>
+        <v>8.313943126871933</v>
       </c>
       <c r="F2">
-        <v>41.93243388613818</v>
+        <v>29.33531354133948</v>
       </c>
       <c r="G2">
-        <v>44.1308114787182</v>
+        <v>32.12843594028003</v>
       </c>
       <c r="H2">
-        <v>18.21598862651263</v>
+        <v>11.41277101861605</v>
       </c>
       <c r="I2">
-        <v>28.93243347951861</v>
+        <v>18.60583476008545</v>
       </c>
       <c r="J2">
-        <v>8.90964630204717</v>
+        <v>5.961304404965234</v>
       </c>
       <c r="K2">
-        <v>11.06736725554729</v>
+        <v>10.71749346280984</v>
       </c>
       <c r="L2">
-        <v>12.20765481881889</v>
+        <v>7.502554501214171</v>
       </c>
       <c r="M2">
-        <v>16.2649007694563</v>
+        <v>10.81979241868065</v>
       </c>
       <c r="N2">
-        <v>21.77714851554531</v>
+        <v>14.14160906227912</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.79038372623333</v>
+        <v>12.64179884948913</v>
       </c>
       <c r="C3">
-        <v>6.80679284274449</v>
+        <v>5.962710596538707</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.14622629166904</v>
+        <v>8.23259097964581</v>
       </c>
       <c r="F3">
-        <v>41.95994156897194</v>
+        <v>28.84043078338462</v>
       </c>
       <c r="G3">
-        <v>44.2070400650726</v>
+        <v>31.81108202623319</v>
       </c>
       <c r="H3">
-        <v>18.26383573636536</v>
+        <v>11.45902525432414</v>
       </c>
       <c r="I3">
-        <v>29.01419969977591</v>
+        <v>18.68260743208509</v>
       </c>
       <c r="J3">
-        <v>8.90752245462906</v>
+        <v>5.957413732436851</v>
       </c>
       <c r="K3">
-        <v>10.94943087262273</v>
+        <v>10.02613881901005</v>
       </c>
       <c r="L3">
-        <v>12.20954885147832</v>
+        <v>7.365267155605679</v>
       </c>
       <c r="M3">
-        <v>16.24090924337228</v>
+        <v>10.48401792812075</v>
       </c>
       <c r="N3">
-        <v>21.83983895019549</v>
+        <v>14.35379510379528</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.68726588670816</v>
+        <v>12.13603932455376</v>
       </c>
       <c r="C4">
-        <v>6.763102746820334</v>
+        <v>5.826146008854544</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.15514013341997</v>
+        <v>8.185017354171768</v>
       </c>
       <c r="F4">
-        <v>41.98521945794436</v>
+        <v>28.55264113308323</v>
       </c>
       <c r="G4">
-        <v>44.26426561438453</v>
+        <v>31.64346778808203</v>
       </c>
       <c r="H4">
-        <v>18.29581873911221</v>
+        <v>11.49382551834355</v>
       </c>
       <c r="I4">
-        <v>29.06897842832023</v>
+        <v>18.7413581795363</v>
       </c>
       <c r="J4">
-        <v>8.90624671778926</v>
+        <v>5.955126741725011</v>
       </c>
       <c r="K4">
-        <v>10.87861097243451</v>
+        <v>9.577827446898546</v>
       </c>
       <c r="L4">
-        <v>12.21223158305875</v>
+        <v>7.282580968297471</v>
       </c>
       <c r="M4">
-        <v>16.22852299349589</v>
+        <v>10.27672295991982</v>
       </c>
       <c r="N4">
-        <v>21.88014434602323</v>
+        <v>14.48708077151557</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.64575048869756</v>
+        <v>11.92485862784278</v>
       </c>
       <c r="C5">
-        <v>6.745004312178082</v>
+        <v>5.769521869655205</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.15914469713257</v>
+        <v>8.166237860548177</v>
       </c>
       <c r="F5">
-        <v>41.99762985277868</v>
+        <v>28.43944916310629</v>
       </c>
       <c r="G5">
-        <v>44.2901999575414</v>
+        <v>31.58184511168442</v>
       </c>
       <c r="H5">
-        <v>18.30950700766612</v>
+        <v>11.5095629989385</v>
       </c>
       <c r="I5">
-        <v>29.09245074905994</v>
+        <v>18.76811564025466</v>
       </c>
       <c r="J5">
-        <v>8.905734062483303</v>
+        <v>5.954221771101514</v>
       </c>
       <c r="K5">
-        <v>10.85018311856239</v>
+        <v>9.389132296032225</v>
       </c>
       <c r="L5">
-        <v>12.21370809532799</v>
+        <v>7.249324008106421</v>
       </c>
       <c r="M5">
-        <v>16.2240692932868</v>
+        <v>10.19208644157056</v>
       </c>
       <c r="N5">
-        <v>21.8970263545853</v>
+        <v>14.54217220742723</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.63888885408329</v>
+        <v>11.88949111007203</v>
       </c>
       <c r="C6">
-        <v>6.741981472312479</v>
+        <v>5.760061600668241</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.15983214881157</v>
+        <v>8.163156465168644</v>
       </c>
       <c r="F6">
-        <v>41.9998179852342</v>
+        <v>28.42090146956486</v>
       </c>
       <c r="G6">
-        <v>44.29466405332295</v>
+        <v>31.57201099695618</v>
       </c>
       <c r="H6">
-        <v>18.31181948956764</v>
+        <v>11.51226865689256</v>
       </c>
       <c r="I6">
-        <v>29.09641772138794</v>
+        <v>18.77272580153802</v>
       </c>
       <c r="J6">
-        <v>8.905649375255704</v>
+        <v>5.954073170300341</v>
       </c>
       <c r="K6">
-        <v>10.84548967039184</v>
+        <v>9.357436613213689</v>
       </c>
       <c r="L6">
-        <v>12.2139764487257</v>
+        <v>7.243829167818188</v>
       </c>
       <c r="M6">
-        <v>16.22336574005418</v>
+        <v>10.17802652102475</v>
       </c>
       <c r="N6">
-        <v>21.89985725277736</v>
+        <v>14.55136760497543</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.68670388318942</v>
+        <v>12.13321158497819</v>
       </c>
       <c r="C7">
-        <v>6.762859849183276</v>
+        <v>5.825386255878825</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.15519263269265</v>
+        <v>8.184761617333901</v>
       </c>
       <c r="F7">
-        <v>41.9853782881293</v>
+        <v>28.55109799887997</v>
       </c>
       <c r="G7">
-        <v>44.26460479662228</v>
+        <v>31.64260990533048</v>
       </c>
       <c r="H7">
-        <v>18.29600069214426</v>
+        <v>11.49403152798997</v>
       </c>
       <c r="I7">
-        <v>29.06929033062707</v>
+        <v>18.74170777285643</v>
       </c>
       <c r="J7">
-        <v>8.906239774590206</v>
+        <v>5.95511442591926</v>
       </c>
       <c r="K7">
-        <v>10.87822579546776</v>
+        <v>9.575306966861016</v>
       </c>
       <c r="L7">
-        <v>12.21224994254083</v>
+        <v>7.282130634176748</v>
       </c>
       <c r="M7">
-        <v>16.22846051976368</v>
+        <v>10.27558201244047</v>
       </c>
       <c r="N7">
-        <v>21.88037016968154</v>
+        <v>14.48782058231758</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.90201254310768</v>
+        <v>13.16364620310638</v>
       </c>
       <c r="C8">
-        <v>6.852391797846806</v>
+        <v>6.105033795779067</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.1379840371264</v>
+        <v>8.285405544747974</v>
       </c>
       <c r="F8">
-        <v>41.94017794223334</v>
+        <v>29.16137204570931</v>
       </c>
       <c r="G8">
-        <v>44.15492889315809</v>
+        <v>32.01326179951833</v>
       </c>
       <c r="H8">
-        <v>18.23194569138387</v>
+        <v>11.42735858939475</v>
       </c>
       <c r="I8">
-        <v>28.95967679355136</v>
+        <v>18.62983244855952</v>
       </c>
       <c r="J8">
-        <v>8.90890818118242</v>
+        <v>5.959942607281557</v>
       </c>
       <c r="K8">
-        <v>11.02639096298073</v>
+        <v>10.48404614639362</v>
       </c>
       <c r="L8">
-        <v>12.20799314429841</v>
+        <v>7.454904269926681</v>
       </c>
       <c r="M8">
-        <v>16.25614448968496</v>
+        <v>10.70432191591984</v>
       </c>
       <c r="N8">
-        <v>21.79838862154872</v>
+        <v>14.21416079971813</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.33648648042805</v>
+        <v>15.01329561516591</v>
       </c>
       <c r="C9">
-        <v>7.018249384931366</v>
+        <v>6.620932909178478</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.11591738266894</v>
+        <v>8.501172347483854</v>
       </c>
       <c r="F9">
-        <v>41.91805803510381</v>
+        <v>30.48325810295911</v>
       </c>
       <c r="G9">
-        <v>44.02277455841585</v>
+        <v>32.96295767030528</v>
       </c>
       <c r="H9">
-        <v>18.12700245312835</v>
+        <v>11.34987124760762</v>
       </c>
       <c r="I9">
-        <v>28.78104389187593</v>
+        <v>18.50739249073262</v>
       </c>
       <c r="J9">
-        <v>8.914361520433165</v>
+        <v>5.970152987132356</v>
       </c>
       <c r="K9">
-        <v>11.32818552661171</v>
+        <v>12.07813190363862</v>
       </c>
       <c r="L9">
-        <v>12.21165269730326</v>
+        <v>7.804995168729584</v>
       </c>
       <c r="M9">
-        <v>16.32883800731289</v>
+        <v>11.53122902153953</v>
       </c>
       <c r="N9">
-        <v>21.65195040166476</v>
+        <v>13.70032054311553</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.66023504051899</v>
+        <v>16.3245529388206</v>
       </c>
       <c r="C10">
-        <v>7.133869046546884</v>
+        <v>6.979290548109679</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.10677511974377</v>
+        <v>8.670264623014939</v>
       </c>
       <c r="F10">
-        <v>41.94226396091089</v>
+        <v>31.52715679346362</v>
       </c>
       <c r="G10">
-        <v>43.97650465775411</v>
+        <v>33.8045490168597</v>
       </c>
       <c r="H10">
-        <v>18.06250245693345</v>
+        <v>11.32894933402058</v>
       </c>
       <c r="I10">
-        <v>28.67197904308444</v>
+        <v>18.48336986026967</v>
       </c>
       <c r="J10">
-        <v>8.91849748608302</v>
+        <v>5.978008037022066</v>
       </c>
       <c r="K10">
-        <v>11.55486058470826</v>
+        <v>13.13652541339854</v>
       </c>
       <c r="L10">
-        <v>12.22158771163982</v>
+        <v>8.067144464815215</v>
       </c>
       <c r="M10">
-        <v>16.39318150160486</v>
+        <v>12.12443944121646</v>
       </c>
       <c r="N10">
-        <v>21.55301147166065</v>
+        <v>13.33521299055156</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.80788411737194</v>
+        <v>16.91882252098686</v>
       </c>
       <c r="C11">
-        <v>7.18504979414435</v>
+        <v>7.137746021933703</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.10413979799801</v>
+        <v>8.749335972885085</v>
       </c>
       <c r="F11">
-        <v>41.9620232658357</v>
+        <v>32.01701713516553</v>
       </c>
       <c r="G11">
-        <v>43.9665313381925</v>
+        <v>34.22004352666877</v>
       </c>
       <c r="H11">
-        <v>18.0358963460822</v>
+        <v>11.32805445489407</v>
       </c>
       <c r="I11">
-        <v>28.62718529938486</v>
+        <v>18.48829486256183</v>
       </c>
       <c r="J11">
-        <v>8.920406065246848</v>
+        <v>5.981633807152196</v>
       </c>
       <c r="K11">
-        <v>11.65864630740833</v>
+        <v>13.59400122884851</v>
       </c>
       <c r="L11">
-        <v>12.22766316564535</v>
+        <v>8.187086669552398</v>
       </c>
       <c r="M11">
-        <v>16.42475992652178</v>
+        <v>12.39015987593168</v>
       </c>
       <c r="N11">
-        <v>21.50986153604633</v>
+        <v>13.17146538368406</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.86379798714963</v>
+        <v>17.13932489935597</v>
       </c>
       <c r="C12">
-        <v>7.204221868821839</v>
+        <v>7.197091916670431</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.10335989096745</v>
+        <v>8.779574558710506</v>
       </c>
       <c r="F12">
-        <v>41.97075873282508</v>
+        <v>32.20459980731987</v>
       </c>
       <c r="G12">
-        <v>43.96434886279048</v>
+        <v>34.38217056764631</v>
       </c>
       <c r="H12">
-        <v>18.02621466193757</v>
+        <v>11.32902473254692</v>
       </c>
       <c r="I12">
-        <v>28.61091682946406</v>
+        <v>18.49257045839751</v>
       </c>
       <c r="J12">
-        <v>8.921132591512935</v>
+        <v>5.983012035690216</v>
       </c>
       <c r="K12">
-        <v>11.69800958110886</v>
+        <v>13.76382817509763</v>
       </c>
       <c r="L12">
-        <v>12.23018582101411</v>
+        <v>8.232574494446016</v>
       </c>
       <c r="M12">
-        <v>16.43704347113412</v>
+        <v>12.49011420858727</v>
       </c>
       <c r="N12">
-        <v>21.49378760599577</v>
+        <v>13.10976550375224</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.85175663680673</v>
+        <v>17.09203653823727</v>
       </c>
       <c r="C13">
-        <v>7.200102198267255</v>
+        <v>7.184339945042711</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.10351817813937</v>
+        <v>8.773049183926835</v>
       </c>
       <c r="F13">
-        <v>41.96882175181179</v>
+        <v>32.16410896588598</v>
       </c>
       <c r="G13">
-        <v>43.96474798027425</v>
+        <v>34.34703926504807</v>
       </c>
       <c r="H13">
-        <v>18.02828228390118</v>
+        <v>11.32875641370366</v>
       </c>
       <c r="I13">
-        <v>28.61438965999159</v>
+        <v>18.49154029891323</v>
       </c>
       <c r="J13">
-        <v>8.920975954325911</v>
+        <v>5.982715016231847</v>
       </c>
       <c r="K13">
-        <v>11.68952978841578</v>
+        <v>13.72740384009344</v>
       </c>
       <c r="L13">
-        <v>12.22963267673293</v>
+        <v>8.222775305632696</v>
       </c>
       <c r="M13">
-        <v>16.43438362020549</v>
+        <v>12.46861803839504</v>
       </c>
       <c r="N13">
-        <v>21.4972376015156</v>
+        <v>13.12304046471224</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.81248442836178</v>
+        <v>16.93705393956121</v>
       </c>
       <c r="C14">
-        <v>7.186631310850496</v>
+        <v>7.142641619031319</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.10407127108802</v>
+        <v>8.751817863082758</v>
       </c>
       <c r="F14">
-        <v>41.96271685633216</v>
+        <v>32.03240831933692</v>
       </c>
       <c r="G14">
-        <v>43.96631982873496</v>
+        <v>34.23328535177842</v>
       </c>
       <c r="H14">
-        <v>18.03509194154945</v>
+        <v>11.32810763800959</v>
       </c>
       <c r="I14">
-        <v>28.62583297048366</v>
+        <v>18.48859754418235</v>
       </c>
       <c r="J14">
-        <v>8.920465761697354</v>
+        <v>5.981747104114587</v>
       </c>
       <c r="K14">
-        <v>11.66188370358708</v>
+        <v>13.60804107273822</v>
       </c>
       <c r="L14">
-        <v>12.22786626687141</v>
+        <v>8.190827779611212</v>
       </c>
       <c r="M14">
-        <v>16.42576401606714</v>
+        <v>12.39839695693798</v>
       </c>
       <c r="N14">
-        <v>21.50853379935572</v>
+        <v>13.16638329999861</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.78842786705162</v>
+        <v>16.84153376273271</v>
       </c>
       <c r="C15">
-        <v>7.178352631102594</v>
+        <v>7.117014565059199</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.10443841865409</v>
+        <v>8.738851220253849</v>
       </c>
       <c r="F15">
-        <v>41.95914045436292</v>
+        <v>31.95200710843384</v>
       </c>
       <c r="G15">
-        <v>43.9674902745001</v>
+        <v>34.16423397184273</v>
       </c>
       <c r="H15">
-        <v>18.03931429926887</v>
+        <v>11.32788282886663</v>
       </c>
       <c r="I15">
-        <v>28.63293272364884</v>
+        <v>18.48711289821676</v>
       </c>
       <c r="J15">
-        <v>8.92015374412858</v>
+        <v>5.981154838379706</v>
       </c>
       <c r="K15">
-        <v>11.6449567198359</v>
+        <v>13.53448522535848</v>
       </c>
       <c r="L15">
-        <v>12.22681314913264</v>
+        <v>8.171267017960307</v>
       </c>
       <c r="M15">
-        <v>16.42052645007817</v>
+        <v>12.35529548190287</v>
       </c>
       <c r="N15">
-        <v>21.51548765575681</v>
+        <v>13.19297123675246</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.65058893479961</v>
+        <v>16.28507841501303</v>
       </c>
       <c r="C16">
-        <v>7.130495316119463</v>
+        <v>6.968843044990095</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.10697791303769</v>
+        <v>8.665139262281283</v>
       </c>
       <c r="F16">
-        <v>41.94114827707666</v>
+        <v>31.49543859670148</v>
       </c>
       <c r="G16">
-        <v>43.97737945835015</v>
+        <v>33.77806068083971</v>
       </c>
       <c r="H16">
-        <v>18.06429628208826</v>
+        <v>11.32918718972127</v>
       </c>
       <c r="I16">
-        <v>28.67500348605871</v>
+        <v>18.48337812065331</v>
       </c>
       <c r="J16">
-        <v>8.918373292100958</v>
+        <v>5.977771947055198</v>
       </c>
       <c r="K16">
-        <v>11.54808847058676</v>
+        <v>13.10614891353125</v>
       </c>
       <c r="L16">
-        <v>12.22122183079744</v>
+        <v>8.059317146584648</v>
       </c>
       <c r="M16">
-        <v>16.39116368179712</v>
+        <v>12.10698425619496</v>
       </c>
       <c r="N16">
-        <v>21.55586870842333</v>
+        <v>13.34595896108882</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.56608813543617</v>
+        <v>15.93557477601452</v>
       </c>
       <c r="C17">
-        <v>7.100769995401775</v>
+        <v>6.876773256330873</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.10892529380391</v>
+        <v>8.620460698177629</v>
       </c>
       <c r="F17">
-        <v>41.93234802087266</v>
+        <v>31.21913460933897</v>
       </c>
       <c r="G17">
-        <v>43.98628422178763</v>
+        <v>33.5495880474752</v>
       </c>
       <c r="H17">
-        <v>18.08032259386059</v>
+        <v>11.33224434495609</v>
       </c>
       <c r="I17">
-        <v>28.70204772509945</v>
+        <v>18.48523939813269</v>
       </c>
       <c r="J17">
-        <v>8.917287907919462</v>
+        <v>5.975708509714478</v>
       </c>
       <c r="K17">
-        <v>11.48880990803059</v>
+        <v>12.83726132165091</v>
       </c>
       <c r="L17">
-        <v>12.21818906007516</v>
+        <v>7.990793463686244</v>
       </c>
       <c r="M17">
-        <v>16.37373729181778</v>
+        <v>11.95353875986448</v>
       </c>
       <c r="N17">
-        <v>21.58111620419401</v>
+        <v>13.44039159427275</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.51752375529871</v>
+        <v>15.73154205748674</v>
       </c>
       <c r="C18">
-        <v>7.083539886038559</v>
+        <v>6.823387431887737</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.11018884453314</v>
+        <v>8.594965974566954</v>
       </c>
       <c r="F18">
-        <v>41.92811009186512</v>
+        <v>31.06162653287963</v>
       </c>
       <c r="G18">
-        <v>43.99244841269292</v>
+        <v>33.42124501931307</v>
       </c>
       <c r="H18">
-        <v>18.08979795245146</v>
+        <v>11.33481005511528</v>
       </c>
       <c r="I18">
-        <v>28.71805653097537</v>
+        <v>18.48779407024</v>
       </c>
       <c r="J18">
-        <v>8.91666618172983</v>
+        <v>5.974526764755757</v>
       </c>
       <c r="K18">
-        <v>11.45477956406532</v>
+        <v>12.68034330760157</v>
       </c>
       <c r="L18">
-        <v>12.21659125614995</v>
+        <v>7.951447040131261</v>
       </c>
       <c r="M18">
-        <v>16.36393176284972</v>
+        <v>11.8648956075359</v>
       </c>
       <c r="N18">
-        <v>21.59581283619784</v>
+        <v>13.49492897287129</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.50108884378981</v>
+        <v>15.66194193614872</v>
       </c>
       <c r="C19">
-        <v>7.077683411970737</v>
+        <v>6.805238229622783</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.11064133319871</v>
+        <v>8.586369204445301</v>
       </c>
       <c r="F19">
-        <v>41.92681681497356</v>
+        <v>31.00854222153685</v>
       </c>
       <c r="G19">
-        <v>43.99471447028075</v>
+        <v>33.37831426486287</v>
       </c>
       <c r="H19">
-        <v>18.09305035831992</v>
+        <v>11.33581534652775</v>
       </c>
       <c r="I19">
-        <v>28.72355473225925</v>
+        <v>18.48891000144616</v>
       </c>
       <c r="J19">
-        <v>8.916456118595717</v>
+        <v>5.974127587490623</v>
       </c>
       <c r="K19">
-        <v>11.44326971551387</v>
+        <v>12.62682405051072</v>
       </c>
       <c r="L19">
-        <v>12.21607549098302</v>
+        <v>7.938137426530109</v>
       </c>
       <c r="M19">
-        <v>16.36064935515262</v>
+        <v>11.83481879151465</v>
       </c>
       <c r="N19">
-        <v>21.60081894457516</v>
+        <v>13.51343341771915</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.57507980764295</v>
+        <v>15.97309091078465</v>
       </c>
       <c r="C20">
-        <v>7.103948100353692</v>
+        <v>6.88661874291348</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.10870315077279</v>
+        <v>8.625195872913096</v>
       </c>
       <c r="F20">
-        <v>41.93319960107645</v>
+        <v>31.24840175996238</v>
       </c>
       <c r="G20">
-        <v>43.98522839437207</v>
+        <v>33.57359107596175</v>
       </c>
       <c r="H20">
-        <v>18.07858991959939</v>
+        <v>11.33183485748945</v>
       </c>
       <c r="I20">
-        <v>28.69912186023678</v>
+        <v>18.48488672388692</v>
       </c>
       <c r="J20">
-        <v>8.917403184952056</v>
+        <v>5.975927655484849</v>
       </c>
       <c r="K20">
-        <v>11.49511372391856</v>
+        <v>12.86611858294403</v>
       </c>
       <c r="L20">
-        <v>12.21849674691782</v>
+        <v>7.998081265187825</v>
       </c>
       <c r="M20">
-        <v>16.37556987842527</v>
+        <v>11.96991374577465</v>
       </c>
       <c r="N20">
-        <v>21.57841046784414</v>
+        <v>13.43031628474735</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.82401996818105</v>
+        <v>16.9826987011702</v>
       </c>
       <c r="C21">
-        <v>7.19059375086732</v>
+        <v>7.154907268575644</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.10390290557958</v>
+        <v>8.758046088799516</v>
       </c>
       <c r="F21">
-        <v>41.96447604834033</v>
+        <v>32.07103600416455</v>
       </c>
       <c r="G21">
-        <v>43.96581486462069</v>
+        <v>34.26656698565799</v>
       </c>
       <c r="H21">
-        <v>18.03308110021722</v>
+        <v>11.32826210582924</v>
       </c>
       <c r="I21">
-        <v>28.6224529532154</v>
+        <v>18.48939541906535</v>
       </c>
       <c r="J21">
-        <v>8.920615515689255</v>
+        <v>5.982031281027661</v>
       </c>
       <c r="K21">
-        <v>11.6700026223184</v>
+        <v>13.64319299237725</v>
       </c>
       <c r="L21">
-        <v>12.22837909326045</v>
+        <v>8.200209922739651</v>
       </c>
       <c r="M21">
-        <v>16.42828702224416</v>
+        <v>12.41904126266559</v>
       </c>
       <c r="N21">
-        <v>21.50520862176004</v>
+        <v>13.15364434343018</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.98670752990844</v>
+        <v>17.61613230875279</v>
       </c>
       <c r="C22">
-        <v>7.246001284793724</v>
+        <v>7.326418036605226</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.10203600256832</v>
+        <v>8.84659058080301</v>
       </c>
       <c r="F22">
-        <v>41.99221781106734</v>
+        <v>32.6207879328236</v>
       </c>
       <c r="G22">
-        <v>43.96241927333751</v>
+        <v>34.74741371727077</v>
       </c>
       <c r="H22">
-        <v>18.00563197121582</v>
+        <v>11.33359163169137</v>
       </c>
       <c r="I22">
-        <v>28.57639058713087</v>
+        <v>18.50645609700857</v>
       </c>
       <c r="J22">
-        <v>8.922736991913869</v>
+        <v>5.986049590125107</v>
       </c>
       <c r="K22">
-        <v>11.78464761786375</v>
+        <v>14.1312060119905</v>
       </c>
       <c r="L22">
-        <v>12.23613095694816</v>
+        <v>8.332698232662375</v>
       </c>
       <c r="M22">
-        <v>16.46463465869478</v>
+        <v>12.70865019786614</v>
       </c>
       <c r="N22">
-        <v>21.4589169936685</v>
+        <v>12.97460273978603</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.89989565912956</v>
+        <v>17.28045384464008</v>
       </c>
       <c r="C23">
-        <v>7.216542666170294</v>
+        <v>7.235229375109976</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.10291652841391</v>
+        <v>8.799179747287445</v>
       </c>
       <c r="F23">
-        <v>41.97674534133976</v>
+        <v>32.32628907065431</v>
       </c>
       <c r="G23">
-        <v>43.96338104907762</v>
+        <v>34.48819116632242</v>
       </c>
       <c r="H23">
-        <v>18.0200721873862</v>
+        <v>11.33002237302708</v>
       </c>
       <c r="I23">
-        <v>28.60060455582859</v>
+        <v>18.49601492332873</v>
       </c>
       <c r="J23">
-        <v>8.9216027405246</v>
+        <v>5.983903091321018</v>
       </c>
       <c r="K23">
-        <v>11.72343913194945</v>
+        <v>13.87254612173612</v>
       </c>
       <c r="L23">
-        <v>12.23187591636566</v>
+        <v>8.261961033171033</v>
       </c>
       <c r="M23">
-        <v>16.44506415702669</v>
+        <v>12.55446100046111</v>
       </c>
       <c r="N23">
-        <v>21.48348225660882</v>
+        <v>13.07000773958533</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.57101461806087</v>
+        <v>15.95613952124647</v>
       </c>
       <c r="C24">
-        <v>7.10251171674454</v>
+        <v>6.882169011352861</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.10880313310164</v>
+        <v>8.623054502684667</v>
       </c>
       <c r="F24">
-        <v>41.93281204252032</v>
+        <v>31.2351658932313</v>
       </c>
       <c r="G24">
-        <v>43.98570247979427</v>
+        <v>33.56272994177947</v>
       </c>
       <c r="H24">
-        <v>18.07937244669836</v>
+        <v>11.33201747490139</v>
       </c>
       <c r="I24">
-        <v>28.70044320868377</v>
+        <v>18.48504155359619</v>
       </c>
       <c r="J24">
-        <v>8.917351061103121</v>
+        <v>5.975828565329005</v>
       </c>
       <c r="K24">
-        <v>11.49226361132884</v>
+        <v>12.85307947857421</v>
       </c>
       <c r="L24">
-        <v>12.21835718749282</v>
+        <v>7.994786295906163</v>
       </c>
       <c r="M24">
-        <v>16.37474070163976</v>
+        <v>11.9625119336196</v>
       </c>
       <c r="N24">
-        <v>21.57963316574463</v>
+        <v>13.43487056128565</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.21794058537319</v>
+        <v>14.53186333302272</v>
       </c>
       <c r="C25">
-        <v>6.974453428110629</v>
+        <v>6.48495490196794</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.12064161338248</v>
+        <v>8.440896274677154</v>
       </c>
       <c r="F25">
-        <v>41.91692706251407</v>
+        <v>30.11260567394816</v>
       </c>
       <c r="G25">
-        <v>44.04961681976206</v>
+        <v>32.68129442575856</v>
       </c>
       <c r="H25">
-        <v>18.15317945326508</v>
+        <v>11.36477443809924</v>
       </c>
       <c r="I25">
-        <v>28.82547682173624</v>
+        <v>18.5294445152543</v>
       </c>
       <c r="J25">
-        <v>8.912863152748345</v>
+        <v>5.96732101792713</v>
       </c>
       <c r="K25">
-        <v>11.24553440396808</v>
+        <v>11.66684208518319</v>
       </c>
       <c r="L25">
-        <v>12.20938441280656</v>
+        <v>7.709282134444015</v>
       </c>
       <c r="M25">
-        <v>16.3072300791162</v>
+        <v>11.30965633933764</v>
       </c>
       <c r="N25">
-        <v>21.6900408195713</v>
+        <v>13.83703631895241</v>
       </c>
       <c r="O25">
         <v>0</v>
